--- a/data/DatabasesWasteAndMaterial/db_wasteandmaterial_cutoff391.xlsx
+++ b/data/DatabasesWasteAndMaterial/db_wasteandmaterial_cutoff391.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>waste_radioactivenon_hazardous_cubicmeter</t>
+          <t>waste_total_cubicmeter</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>waste_radioactivenon_hazardous_cubicmeter</t>
+          <t>waste_total_cubicmeter</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>waste_total_cubicmeter</t>
+          <t>waste_landfill_cubicmeter</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>waste_total_cubicmeter</t>
+          <t>waste_landfill_cubicmeter</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>waste_landfill_cubicmeter</t>
+          <t>waste_digestion_kilogram</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>waste_landfill_cubicmeter</t>
+          <t>waste_digestion_kilogram</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>waste_digestion_kilogram</t>
+          <t>waste_recycling_kilogram</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>waste_digestion_kilogram</t>
+          <t>waste_recycling_kilogram</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>waste_recycling_kilogram</t>
+          <t>waste_non_hazardous_cubicmeter</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>waste_recycling_kilogram</t>
+          <t>waste_non_hazardous_cubicmeter</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>cubic meter</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>waste_non_hazardous_cubicmeter</t>
+          <t>waste_landfill_kilogram</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>waste_non_hazardous_cubicmeter</t>
+          <t>waste_landfill_kilogram</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>waste_landfill_kilogram</t>
+          <t>waste_incineration_cubicmeter</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>waste_landfill_kilogram</t>
+          <t>waste_incineration_cubicmeter</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>cubic meter</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>waste_incineration_cubicmeter</t>
+          <t>waste_hazardous_kilogram</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>waste_incineration_cubicmeter</t>
+          <t>waste_hazardous_kilogram</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>waste_hazardous_kilogram</t>
+          <t>waste_composting_kilogram</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>waste_hazardous_kilogram</t>
+          <t>waste_composting_kilogram</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>waste_composting_kilogram</t>
+          <t>waste_non_hazardous_kilogram</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>waste_composting_kilogram</t>
+          <t>waste_non_hazardous_kilogram</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>waste_radioactive_cubicmeter</t>
+          <t>waste_hazardous_cubicmeter</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>waste_radioactive_cubicmeter</t>
+          <t>waste_hazardous_cubicmeter</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>waste_non_hazardous_kilogram</t>
+          <t>waste_incineration_kilogram</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>waste_non_hazardous_kilogram</t>
+          <t>waste_incineration_kilogram</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>waste_hazardous_cubicmeter</t>
+          <t>MaterialDemand_indium</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>waste_hazardous_cubicmeter</t>
+          <t>MaterialDemand_indium</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>waste</t>
+          <t>material</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>waste_incineration_kilogram</t>
+          <t>MaterialDemand_latex</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>waste_incineration_kilogram</t>
+          <t>MaterialDemand_latex</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>waste</t>
+          <t>material</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MaterialDemand_indium</t>
+          <t>MaterialDemand_electricity</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MaterialDemand_indium</t>
+          <t>MaterialDemand_electricity</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>kilowatt hour</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MaterialDemand_latex</t>
+          <t>MaterialDemand_sand</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MaterialDemand_latex</t>
+          <t>MaterialDemand_sand</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MaterialDemand_electricity</t>
+          <t>MaterialDemand_gold</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MaterialDemand_electricity</t>
+          <t>MaterialDemand_gold</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>kilowatt hour</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MaterialDemand_sand</t>
+          <t>MaterialDemand_natural gas</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MaterialDemand_sand</t>
+          <t>MaterialDemand_natural gas</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>cubic meter</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MaterialDemand_gold</t>
+          <t>MaterialDemand_zinc</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MaterialDemand_gold</t>
+          <t>MaterialDemand_zinc</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MaterialDemand_natural gas</t>
+          <t>MaterialDemand_platinum</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MaterialDemand_natural gas</t>
+          <t>MaterialDemand_platinum</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MaterialDemand_zinc</t>
+          <t>MaterialDemand_rare earth</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MaterialDemand_zinc</t>
+          <t>MaterialDemand_rare earth</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MaterialDemand_platinum</t>
+          <t>MaterialDemand_cobalt</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MaterialDemand_platinum</t>
+          <t>MaterialDemand_cobalt</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MaterialDemand_rare earth</t>
+          <t>MaterialDemand_coke</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MaterialDemand_rare earth</t>
+          <t>MaterialDemand_coke</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MaterialDemand_cobalt</t>
+          <t>MaterialDemand_scandium</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MaterialDemand_cobalt</t>
+          <t>MaterialDemand_scandium</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MaterialDemand_coke</t>
+          <t>MaterialDemand_palladium</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MaterialDemand_coke</t>
+          <t>MaterialDemand_palladium</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MaterialDemand_scandium</t>
+          <t>MaterialDemand_magnesium</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MaterialDemand_scandium</t>
+          <t>MaterialDemand_magnesium</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MaterialDemand_palladium</t>
+          <t>MaterialDemand_silver</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MaterialDemand_palladium</t>
+          <t>MaterialDemand_silver</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MaterialDemand_magnesium</t>
+          <t>MaterialDemand_strontium</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MaterialDemand_magnesium</t>
+          <t>MaterialDemand_strontium</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MaterialDemand_silver</t>
+          <t>MaterialDemand_gallium</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MaterialDemand_silver</t>
+          <t>MaterialDemand_gallium</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MaterialDemand_strontium</t>
+          <t>MaterialDemand_helium</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MaterialDemand_strontium</t>
+          <t>MaterialDemand_helium</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MaterialDemand_gallium</t>
+          <t>MaterialDemand_rhodium</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MaterialDemand_gallium</t>
+          <t>MaterialDemand_rhodium</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MaterialDemand_helium</t>
+          <t>MaterialDemand_fluorspar</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MaterialDemand_helium</t>
+          <t>MaterialDemand_fluorspar</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>MaterialDemand_rhodium</t>
+          <t>MaterialDemand_water</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MaterialDemand_rhodium</t>
+          <t>MaterialDemand_water</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>cubic meter</t>
         </is>
       </c>
     </row>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MaterialDemand_fluorspar</t>
+          <t>MaterialDemand_tungsten</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MaterialDemand_fluorspar</t>
+          <t>MaterialDemand_tungsten</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MaterialDemand_water</t>
+          <t>MaterialDemand_nickel</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MaterialDemand_water</t>
+          <t>MaterialDemand_nickel</t>
         </is>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>cubic meter</t>
+          <t>kilogram</t>
         </is>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MaterialDemand_tungsten</t>
+          <t>MaterialDemand_tantalum</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>MaterialDemand_tungsten</t>
+          <t>MaterialDemand_tantalum</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MaterialDemand_nickel</t>
+          <t>MaterialDemand_silicon</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MaterialDemand_nickel</t>
+          <t>MaterialDemand_silicon</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MaterialDemand_tantalum</t>
+          <t>MaterialDemand_phosphate rock</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MaterialDemand_tantalum</t>
+          <t>MaterialDemand_phosphate rock</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MaterialDemand_silicon</t>
+          <t>MaterialDemand_copper</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MaterialDemand_silicon</t>
+          <t>MaterialDemand_copper</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MaterialDemand_phosphate rock</t>
+          <t>MaterialDemand_petroleum</t>
         </is>
       </c>
     </row>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MaterialDemand_phosphate rock</t>
+          <t>MaterialDemand_petroleum</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>MaterialDemand_copper</t>
+          <t>MaterialDemand_vegetable oil</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>MaterialDemand_copper</t>
+          <t>MaterialDemand_vegetable oil</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MaterialDemand_petroleum</t>
+          <t>MaterialDemand_lithium</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>MaterialDemand_petroleum</t>
+          <t>MaterialDemand_lithium</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>MaterialDemand_vegetable oil</t>
+          <t>MaterialDemand_borates</t>
         </is>
       </c>
     </row>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>MaterialDemand_vegetable oil</t>
+          <t>MaterialDemand_borates</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>MaterialDemand_lithium</t>
+          <t>MaterialDemand_bauxite</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>MaterialDemand_lithium</t>
+          <t>MaterialDemand_bauxite</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>MaterialDemand_borates</t>
+          <t>MaterialDemand_antimony</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>MaterialDemand_borates</t>
+          <t>MaterialDemand_antimony</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>MaterialDemand_bauxite</t>
+          <t>MaterialDemand_graphite</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>MaterialDemand_bauxite</t>
+          <t>MaterialDemand_graphite</t>
         </is>
       </c>
     </row>
@@ -3522,132 +3522,6 @@
     </row>
     <row r="296">
       <c r="A296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>MaterialDemand_antimony</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>categories</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>water, air, land</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>MaterialDemand_antimony</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>kilogram</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>MaterialDemand_graphite</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>categories</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>water, air, land</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>MaterialDemand_graphite</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>kilogram</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
